--- a/Data_preparation/datasets/final_data/SALESFORCECOM_INC.xlsx
+++ b/Data_preparation/datasets/final_data/SALESFORCECOM_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>56.2879002583733</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>68.65777587890625</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>70.2609149665568</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>54.87278575352673</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>952000000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>35619950000</v>
@@ -876,22 +768,22 @@
         <v>42124</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>72.60623971603434</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>71.99269104003906</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>75.38698591615947</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>68.56870966426919</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>952000000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>47376692000</v>
@@ -992,22 +884,22 @@
         <v>42216</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>72.80415957253398</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>68.63798522949219</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>73.36822575318394</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>63.49211858321099</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>952000000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>48084800000</v>
@@ -1108,22 +1000,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>76.90107357485175</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>78.86046600341797</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>82.0370504671741</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>73.1703208706824</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>952000000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>51288600000</v>
@@ -1224,22 +1116,22 @@
         <v>42400</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>66.88640070712104</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>67.04473876953125</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>70.10256898757827</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>52.05244512140504</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>952000000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>45191840000</v>
@@ -1340,22 +1232,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>75.50575413074584</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>82.83861541748047</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>83.60060428970398</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>72.40833119946025</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>952000000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>50854220000</v>
@@ -1468,22 +1360,22 @@
         <v>42582</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>80.92870334345369</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>78.59326934814453</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>80.94849937984105</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>75.08022788696286</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>952000000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>55419500000</v>
@@ -1584,22 +1476,22 @@
         <v>42674</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>75.19896683055654</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>71.25050354003906</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>79.53337729455961</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>71.25050354003906</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>952000000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>51484600000</v>
@@ -1700,22 +1592,22 @@
         <v>42766</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>78.08858589770188</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>80.50318145751953</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>82.26465124746039</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>76.64377719923537</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>952000000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>55108970000</v>
@@ -1816,22 +1708,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>85.35217530942711</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>88.70688629150391</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>90.85429573077296</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>85.21363325205336</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>952000000</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>60929900000</v>
@@ -1935,22 +1827,22 @@
         <v>42947</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>90.41887194645859</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>94.49597930908205</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>94.6642154046076</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>86.35165505123808</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>952000000</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>64667760000</v>
@@ -2063,22 +1955,22 @@
         <v>43039</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>102.5908269748701</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>103.2340621948242</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>108.0533697858935</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>100.2455027413109</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>952000000</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>73551758000</v>
@@ -2179,22 +2071,22 @@
         <v>43131</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>112.1205903160145</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>115.0398788452148</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>116.9201020309596</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>101.3043674266762</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>952000000</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>82277193000</v>
@@ -2307,22 +2199,22 @@
         <v>43220</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>119.6216903362453</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>127.9837341308594</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>131.170216573424</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>119.166479637304</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>952000000</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>88504185000</v>
@@ -2426,22 +2318,22 @@
         <v>43312</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>136.563472887765</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>151.0906524658203</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>153.3568228994231</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>135.3264849087091</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>952000000</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>100654385000</v>
@@ -2554,22 +2446,22 @@
         <v>43404</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>136.9593108587654</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>141.27392578125</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>142.1348797320345</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>112.4174724762589</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>952000000</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>103849508000</v>
@@ -2682,22 +2574,22 @@
         <v>43496</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>150.8135511125558</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>161.9464416503906</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>162.8865644868783</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>149.4974093413715</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>952000000</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>116257050000</v>
@@ -2810,22 +2702,22 @@
         <v>43585</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>164.2819209818063</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>149.8339080810547</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>164.4897416402893</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>149.6260874225716</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>952000000</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>127484850000</v>
@@ -2938,22 +2830,22 @@
         <v>43677</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>153.11931098708</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>154.4453735351562</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>156.770901803147</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>136.4348170429022</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>952000000</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>119892000000</v>
@@ -3066,22 +2958,22 @@
         <v>43769</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>156.2662404791025</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>161.1943969726562</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>164.6084811995161</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>153.8516372276565</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>952000000</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>137241730000</v>
@@ -3182,22 +3074,22 @@
         <v>43861</v>
       </c>
       <c r="D22">
-        <v>23.6926327642264</v>
+        <v>181.3523227347343</v>
       </c>
       <c r="E22">
-        <v>20.75907325744629</v>
+        <v>168.6261901855469</v>
       </c>
       <c r="F22">
-        <v>25.38844422011294</v>
+        <v>193.6826251825274</v>
       </c>
       <c r="G22">
-        <v>19.00478605726309</v>
+        <v>161.4219736205274</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>952000000</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>161708970000</v>
@@ -3298,22 +3190,22 @@
         <v>43951</v>
       </c>
       <c r="D23">
-        <v>29.1299991607666</v>
+        <v>156.8401789823443</v>
       </c>
       <c r="E23">
-        <v>36.31999969482422</v>
+        <v>172.9704895019531</v>
       </c>
       <c r="F23">
-        <v>36.45000076293945</v>
+        <v>182.8762985046751</v>
       </c>
       <c r="G23">
-        <v>26.57999992370605</v>
+        <v>153.4656722869126</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>952000000</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>144945250000</v>
@@ -3426,22 +3318,22 @@
         <v>44043</v>
       </c>
       <c r="D24">
-        <v>49.18523125628565</v>
+        <v>195.7409707736601</v>
       </c>
       <c r="E24">
-        <v>44.42190551757812</v>
+        <v>269.8117980957031</v>
       </c>
       <c r="F24">
-        <v>50.24917073284447</v>
+        <v>275.3831964992401</v>
       </c>
       <c r="G24">
-        <v>41.23985008431981</v>
+        <v>189.7242597405219</v>
       </c>
       <c r="H24">
-        <v>1122466035</v>
+        <v>952000000</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>175559850000</v>
@@ -3554,22 +3446,22 @@
         <v>44135</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>232.6724700721815</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>243.2413024902344</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>268.0998214754197</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>226.6062917081189</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>952000000</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>211365700000</v>
@@ -3670,22 +3562,22 @@
         <v>44227</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>224.8448264972343</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>214.2463073730469</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>248.6147754548341</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>214.0879692955729</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>952000000</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>206387400000</v>
@@ -3786,22 +3678,22 @@
         <v>44316</v>
       </c>
       <c r="D27">
-        <v>55.13000106811523</v>
+        <v>228.367761142473</v>
       </c>
       <c r="E27">
-        <v>54.95000076293945</v>
+        <v>235.6214599609375</v>
       </c>
       <c r="F27">
-        <v>56.47000122070312</v>
+        <v>240.9652416201309</v>
       </c>
       <c r="G27">
-        <v>47.61999893188477</v>
+        <v>206.7353162599697</v>
       </c>
       <c r="H27">
-        <v>150594095</v>
+        <v>952000000</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>212124720000</v>
@@ -3914,22 +3806,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>82.94634035907019</v>
+        <v>239.7875934264296</v>
       </c>
       <c r="E28">
-        <v>84.26999664306641</v>
+        <v>262.5085754394531</v>
       </c>
       <c r="F28">
-        <v>86.77550126072052</v>
+        <v>272.3550097827603</v>
       </c>
       <c r="G28">
-        <v>82.34123106917598</v>
+        <v>236.3933063665365</v>
       </c>
       <c r="H28">
-        <v>2850792605</v>
+        <v>952000000</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>224027180000</v>
@@ -4042,22 +3934,22 @@
         <v>44500</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>298.3615171679053</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>281.9936828613281</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>308.5048191611757</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>280.0936861316079</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>952000000</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>293396510000</v>
@@ -4170,22 +4062,22 @@
         <v>44592</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>229.9511048225611</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>208.3384552001953</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>232.049046632756</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>182.5200465898714</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>952000000</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>229140550000</v>
@@ -4286,22 +4178,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>150.5399932861328</v>
+        <v>173.2673678392397</v>
       </c>
       <c r="E31">
-        <v>153.7299957275391</v>
+        <v>158.5719604492188</v>
       </c>
       <c r="F31">
-        <v>158.7100067138672</v>
+        <v>184.0440059652352</v>
       </c>
       <c r="G31">
-        <v>132.3200073242188</v>
+        <v>152.9411890365635</v>
       </c>
       <c r="H31">
-        <v>272490000</v>
+        <v>952000000</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>174180600000</v>
@@ -4414,22 +4306,22 @@
         <v>44773</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>179.412700264181</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>154.4948120117188</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>192.3466358925259</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>154.346379526675</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>952000000</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>183099900000</v>
@@ -4542,22 +4434,22 @@
         <v>44865</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>163.2824178567729</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>158.5818634033203</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>163.9751281246598</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>134.6238729029025</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>952000000</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>162590000000</v>
@@ -4670,22 +4562,22 @@
         <v>44957</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>165.9839986090795</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>161.9068908691406</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>176.9783488912497</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>157.9980116903209</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>952000000</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>167970000000</v>
@@ -4786,22 +4678,22 @@
         <v>45046</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>195.7013735792695</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>221.0546875</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>222.6578189645609</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>188.7742414337054</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>952000000</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>198370000000</v>
@@ -4914,22 +4806,22 @@
         <v>45138</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>221.5593909943528</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>219.1546936035156</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>226.4083778474535</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>198.1159923258932</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>952000000</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>219159740000</v>
@@ -5042,22 +4934,22 @@
         <v>45230</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>198.8285021954522</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>249.2778167724609</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>249.8715770549482</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>198.4029855696322</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>952000000</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>195407590000</v>
@@ -5170,22 +5062,22 @@
         <v>45322</v>
       </c>
       <c r="D38">
-        <v>354.4882078035527</v>
+        <v>279.0743998164025</v>
       </c>
       <c r="E38">
-        <v>364.9865112304687</v>
+        <v>305.6053161621094</v>
       </c>
       <c r="F38">
-        <v>370.4596485847449</v>
+        <v>307.3074128669396</v>
       </c>
       <c r="G38">
-        <v>349.5896494174895</v>
+        <v>273.54259307568</v>
       </c>
       <c r="H38">
-        <v>622000000</v>
+        <v>952000000</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>272095120000</v>
@@ -5286,22 +5178,22 @@
         <v>45412</v>
       </c>
       <c r="D39">
-        <v>32.91999816894531</v>
+        <v>266.5673505552567</v>
       </c>
       <c r="E39">
-        <v>29.47999954223633</v>
+        <v>232.3026275634766</v>
       </c>
       <c r="F39">
-        <v>34.43000030517578</v>
+        <v>287.3758948652332</v>
       </c>
       <c r="G39">
-        <v>29.14999961853028</v>
+        <v>210.067209224525</v>
       </c>
       <c r="H39">
-        <v>48253392</v>
+        <v>952000000</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>260871800000</v>
@@ -5414,22 +5306,22 @@
         <v>45504</v>
       </c>
       <c r="D40">
-        <v>65.3347813084503</v>
+        <v>257.9313684090956</v>
       </c>
       <c r="E40">
-        <v>75.98967742919922</v>
+        <v>250.984390258789</v>
       </c>
       <c r="F40">
-        <v>78.74061759069839</v>
+        <v>269.8901132539759</v>
       </c>
       <c r="G40">
-        <v>53.01535875336031</v>
+        <v>230.4511204176801</v>
       </c>
       <c r="H40">
-        <v>862100000</v>
+        <v>952000000</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>250777200000</v>
@@ -5542,22 +5434,22 @@
         <v>45596</v>
       </c>
       <c r="D41">
-        <v>171.1399993896484</v>
+        <v>288.4838176559762</v>
       </c>
       <c r="E41">
-        <v>336.75</v>
+        <v>328.0045776367188</v>
       </c>
       <c r="F41">
-        <v>344.7699890136719</v>
+        <v>346.761039837357</v>
       </c>
       <c r="G41">
-        <v>158.3300018310547</v>
+        <v>288.2551905501395</v>
       </c>
       <c r="H41">
-        <v>307636373</v>
+        <v>952000000</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>278549720000</v>
@@ -5670,22 +5562,22 @@
         <v>45688</v>
       </c>
       <c r="D42">
-        <v>29.5</v>
+        <v>334.3296604260772</v>
       </c>
       <c r="E42">
-        <v>23.45000076293945</v>
+        <v>296.3957824707031</v>
       </c>
       <c r="F42">
-        <v>35.97999954223633</v>
+        <v>346.340737115616</v>
       </c>
       <c r="G42">
-        <v>22.81999969482422</v>
+        <v>290.7236000178734</v>
       </c>
       <c r="H42">
-        <v>134349704</v>
+        <v>952000000</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>327006900000</v>
@@ -5798,22 +5690,22 @@
         <v>45777</v>
       </c>
       <c r="D43">
-        <v>160.2100067138672</v>
+        <v>272.4926372448254</v>
       </c>
       <c r="E43">
-        <v>168.3200073242188</v>
+        <v>264.4892883300781</v>
       </c>
       <c r="F43">
-        <v>174.2599945068359</v>
+        <v>295.0674606106557</v>
       </c>
       <c r="G43">
-        <v>151.6699981689453</v>
+        <v>253.6553684235463</v>
       </c>
       <c r="H43">
-        <v>119792704</v>
+        <v>952000000</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>258230310000</v>
@@ -5926,22 +5818,22 @@
         <v>45869</v>
       </c>
       <c r="D44">
-        <v>77.06999969482422</v>
+        <v>254.5467611476779</v>
       </c>
       <c r="E44">
-        <v>62.86999893188477</v>
+        <v>255.8045654296875</v>
       </c>
       <c r="F44">
-        <v>80.05999755859375</v>
+        <v>257.1921638417244</v>
       </c>
       <c r="G44">
-        <v>62.61999893188477</v>
+        <v>226.0863097974658</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>952000000</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>246963480000</v>
